--- a/Content/TableData/Resource_Unit.xlsx
+++ b/Content/TableData/Resource_Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1CA90-37B7-4767-9EA2-26704AEF1016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B918B87-2258-4DA2-A988-61DBC376C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AD8A1AE-0F9A-4BF6-91B8-C28F04743413}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F361D8F-70CF-45F3-9519-D033179A48C7}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>10001</v>
       </c>
       <c r="D3">
         <v>30001</v>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>30002</v>
@@ -547,6 +547,26 @@
         <v>700</v>
       </c>
       <c r="H4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>301</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>700</v>
       </c>
     </row>

--- a/Content/TableData/Resource_Unit.xlsx
+++ b/Content/TableData/Resource_Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B918B87-2258-4DA2-A988-61DBC376C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB022FC1-3A69-4C29-B627-BE5CDB485B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AD8A1AE-0F9A-4BF6-91B8-C28F04743413}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SprintSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F361D8F-70CF-45F3-9519-D033179A48C7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,11 +455,12 @@
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -475,13 +480,16 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,8 +511,11 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -521,13 +532,16 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
+      <c r="I3">
+        <v>700</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -544,13 +558,16 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
+      <c r="I4">
+        <v>700</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -564,9 +581,12 @@
         <v>1000</v>
       </c>
       <c r="G8">
+        <v>1500</v>
+      </c>
+      <c r="H8">
         <v>700</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>700</v>
       </c>
     </row>

--- a/Content/TableData/Resource_Unit.xlsx
+++ b/Content/TableData/Resource_Unit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectCY\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB022FC1-3A69-4C29-B627-BE5CDB485B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD3D08-648E-48CD-B60C-2E5666A601D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AD8A1AE-0F9A-4BF6-91B8-C28F04743413}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -147,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,7 +444,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,25 +567,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>10001</v>
       </c>
       <c r="C8">
         <v>301</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
